--- a/analysis/state_taxes.xlsx
+++ b/analysis/state_taxes.xlsx
@@ -897,11 +897,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="165879424"/>
-        <c:axId val="165886496"/>
+        <c:axId val="-352854448"/>
+        <c:axId val="-352847376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165879424"/>
+        <c:axId val="-352854448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165886496"/>
+        <c:crossAx val="-352847376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -952,7 +952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165886496"/>
+        <c:axId val="-352847376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,13 +989,38 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165879424"/>
+        <c:crossAx val="-352854448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
             <c:layout/>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>Billions</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1931,7 +1956,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -1944,7 +1969,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" cap="all" baseline="0"/>
               <a:t>California Taxes by Category 2014</a:t>
             </a:r>
           </a:p>
@@ -1964,7 +1989,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -2196,24 +2221,75 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20337344148504949"/>
+                  <c:y val="-3.5747551822910784E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:fld id="{B1E83C8C-D117-49F8-8F90-6F6AB73AA48E}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1000" baseline="0"/>
+                      </a:pPr>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, 76.9 million</a:t>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>, 76.9 billion</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2244,7 +2320,7 @@
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, 50.0 million</a:t>
+                      <a:t>, 50.0 billion</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -2284,7 +2360,7 @@
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, 8.9 million</a:t>
+                      <a:t>, 8.9 billion</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -2309,21 +2385,67 @@
               <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:fld id="{170F8FBA-5925-44D6-B690-2D0AB7573722}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1000" baseline="0"/>
+                      </a:pPr>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, 2.2 million</a:t>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>, 2.2 billion</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2353,7 +2475,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2377,9 +2499,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4510,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,6 +5545,7 @@
     <sortCondition descending="1" ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>